--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4137.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4137.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kannaur Lokesh Rahul</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -803,7 +868,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>20/08/2017</t>
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1955,7 +2019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2007,7 +2071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2163,7 +2227,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,7 +2279,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2267,7 +2331,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2319,7 +2383,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2371,7 +2435,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2423,7 +2487,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2475,7 +2539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2527,7 +2591,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2579,7 +2643,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2631,7 +2695,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2671,7 +2735,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -2679,7 +2742,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2731,7 +2794,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2783,7 +2846,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2835,7 +2898,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2887,7 +2950,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2939,7 +3002,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2991,7 +3054,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3043,7 +3106,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3095,7 +3158,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3147,7 +3210,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3199,7 +3262,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3251,7 +3314,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3282,6 +3345,561 @@
       <c r="J55" t="inlineStr">
         <is>
           <t>50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19.56%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.16%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.68%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.25%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.26%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.22%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.27%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.90%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4137.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4137.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4137.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4137.xlsx
@@ -3359,7 +3359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,41 +3402,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>57.80%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19.56%</t>
+          <t>25.58%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3462,41 +3462,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>3899</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3508,7 +3522,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -3524,27 +3538,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.16%</t>
-        </is>
-      </c>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3554,27 +3554,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3584,27 +3572,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.68%</t>
-        </is>
-      </c>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3614,12 +3588,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4637</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -3632,11 +3604,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3650,7 +3622,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>1.87%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3662,13 +3634,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3678,27 +3664,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>39.25%</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3708,27 +3690,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.26%</t>
-        </is>
-      </c>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3738,13 +3706,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3754,7 +3736,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -3770,25 +3752,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29.22%</t>
+          <t>3.13%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3800,13 +3782,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>16.96%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3816,27 +3812,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.27%</t>
-        </is>
-      </c>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3846,15 +3828,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3864,7 +3846,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>17.91%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3876,28 +3858,864 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.52%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>41.89%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.36%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.37%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18.43%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.53%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.84%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19.56%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>19.16%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.68%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.25%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>5.26%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.22%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.27%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>12.90%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
